--- a/data/trans_dic/P36BPD13_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.8432755678503747</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8409264201152803</v>
+        <v>0.8409264201152802</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8419683288280116</v>
+        <v>0.8419683288280115</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8047919732539989</v>
+        <v>0.8011666281676207</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8134592463166359</v>
+        <v>0.8139098113907367</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8218933087050706</v>
+        <v>0.8194677825921846</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8793592104002046</v>
+        <v>0.8749960567313138</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8663520636670632</v>
+        <v>0.8642773363451566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8629278072540449</v>
+        <v>0.8625664389973788</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.8800618675403116</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8670214005847715</v>
+        <v>0.8670214005847714</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8207302721875454</v>
+        <v>0.8231542540341968</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8605382248398501</v>
+        <v>0.8622835447267064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8500240623735609</v>
+        <v>0.8503825350645307</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8762924297744584</v>
+        <v>0.8762778420997092</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.89551286783536</v>
+        <v>0.8972971352153798</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8806818069196515</v>
+        <v>0.881516783946221</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8487610232501234</v>
+        <v>0.8487610232501235</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9031269208509942</v>
+        <v>0.903126920850994</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8759497011298614</v>
+        <v>0.8759497011298615</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.82390674614675</v>
+        <v>0.8206948624339528</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8856175280648392</v>
+        <v>0.8866169092162783</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8590588823342481</v>
+        <v>0.8604882651849985</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8744265560455099</v>
+        <v>0.8733029126014389</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9190715611097927</v>
+        <v>0.9201299855851712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8906136970267663</v>
+        <v>0.8902180624637382</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8377462031505217</v>
+        <v>0.8377462031505216</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8711374752905376</v>
+        <v>0.8711374752905374</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8537631549606509</v>
+        <v>0.8537631549606506</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8054484717103068</v>
+        <v>0.8098726913123242</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.847756957820516</v>
+        <v>0.8474421635370109</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.834522567734297</v>
+        <v>0.8360000858456933</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8634920677952423</v>
+        <v>0.8639593208343932</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8914846046916793</v>
+        <v>0.8904085485753443</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8704197473473262</v>
+        <v>0.8705487587158812</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8457438601433982</v>
+        <v>0.8457438601433984</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8777895428911514</v>
+        <v>0.8777895428911515</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8622263857570083</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8301213402879779</v>
+        <v>0.8309622697907864</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8679597055408698</v>
+        <v>0.8667953729043759</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8533519379178053</v>
+        <v>0.8530918744364034</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8589929128560829</v>
+        <v>0.8581874811038599</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8875053157801479</v>
+        <v>0.8868373650777626</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.870694521165262</v>
+        <v>0.8706815082188113</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>398854</v>
+        <v>397057</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>505815</v>
+        <v>506095</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>918389</v>
+        <v>915678</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>435810</v>
+        <v>433647</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>538704</v>
+        <v>537414</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>964241</v>
+        <v>963837</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>783064</v>
+        <v>785376</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>953315</v>
+        <v>955248</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1752680</v>
+        <v>1753419</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>836076</v>
+        <v>836062</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>992060</v>
+        <v>994037</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1815894</v>
+        <v>1817615</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>856851</v>
+        <v>853510</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>921418</v>
+        <v>922458</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1787194</v>
+        <v>1790168</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>909391</v>
+        <v>908222</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>956224</v>
+        <v>957325</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1852841</v>
+        <v>1852018</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>782436</v>
+        <v>786734</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>759197</v>
+        <v>758915</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1558025</v>
+        <v>1560784</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>838821</v>
+        <v>839275</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>798357</v>
+        <v>797393</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1625044</v>
+        <v>1625285</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2873149</v>
+        <v>2876059</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3181575</v>
+        <v>3177307</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6081582</v>
+        <v>6079728</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2973077</v>
+        <v>2970289</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3253221</v>
+        <v>3250772</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6205177</v>
+        <v>6205084</v>
       </c>
     </row>
     <row r="24">
